--- a/AUTO PAGOS BBVA/MONTOS Y RECHAZOS QNA072021.xlsx
+++ b/AUTO PAGOS BBVA/MONTOS Y RECHAZOS QNA072021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\INE\AUTO PAGOS BBVA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\INE\AUTO PAGOS BBVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,55 +18,56 @@
     <sheet name="PAGO  OB " sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="DEVOLUCION OB" sheetId="2" state="hidden" r:id="rId5"/>
     <sheet name="MONTOS " sheetId="9" r:id="rId6"/>
-    <sheet name="RECHAZOS " sheetId="10" r:id="rId7"/>
-    <sheet name="Hoja6" sheetId="6" state="hidden" r:id="rId8"/>
-    <sheet name="Hoja8" sheetId="8" state="hidden" r:id="rId9"/>
+    <sheet name="Hoja1" sheetId="11" r:id="rId7"/>
+    <sheet name="RECHAZOS " sheetId="10" r:id="rId8"/>
+    <sheet name="Hoja6" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="Hoja8" sheetId="8" state="hidden" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_150421_CLABE" localSheetId="0">'GRAL '!$A$2:$J$832</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'DEVOLUCION OB'!$A$1:$L$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'GRAL '!$A$1:$O$832</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Hoja6!$A$1:$I$54</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Hoja8!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'MONTOS '!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Hoja6!$A$1:$I$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Hoja8!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'MONTOS '!$A$1:$M$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'PAGO  OB '!$A$1:$G$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PAGO BBVA '!$A$1:$M$54</definedName>
-    <definedName name="OB_PEHONQ721_YN_RECHAZO" localSheetId="6">'RECHAZOS '!#REF!</definedName>
-    <definedName name="OPERADO_OB_PEHONQ721_CH" localSheetId="6">'RECHAZOS '!$D$12:$M$1078</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_AG" localSheetId="6">'RECHAZOS '!$A$23:$L$24</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_BC" localSheetId="6">'RECHAZOS '!$A$25:$L$27</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_CC" localSheetId="6">'RECHAZOS '!$A$28:$L$29</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_CH" localSheetId="6">'RECHAZOS '!$A$12:$L$18</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_CL" localSheetId="6">'RECHAZOS '!$A$30:$L$30</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_CS" localSheetId="6">'RECHAZOS '!$A$31:$L$31</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_DG" localSheetId="6">'RECHAZOS '!$A$19:$L$19</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_DG_1" localSheetId="6">'RECHAZOS '!#REF!</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_GR" localSheetId="6">'RECHAZOS '!$A$20:$L$21</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_HG" localSheetId="6">'RECHAZOS '!$A$32:$L$32</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_HG_PEN" localSheetId="6">'RECHAZOS '!$A$22:$L$22</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_JC" localSheetId="6">'RECHAZOS '!$A$33:$L$34</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_MN" localSheetId="6">'RECHAZOS '!$A$35:$L$38</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_MX" localSheetId="6">'RECHAZOS '!$A$39:$L$44</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_NL" localSheetId="6">'RECHAZOS '!$A$45:$L$46</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_OC" localSheetId="6">'RECHAZOS '!$A$47:$L$51</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_OFC" localSheetId="6">'RECHAZOS '!$A$52:$L$52</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_QR" localSheetId="6">'RECHAZOS '!$A$53:$L$53</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_QT" localSheetId="6">'RECHAZOS '!$A$54:$L$55</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_SL" localSheetId="6">'RECHAZOS '!#REF!</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_SL_1" localSheetId="6">'RECHAZOS '!$D$2:$L$2</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_SP" localSheetId="6">'RECHAZOS '!#REF!</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_SP_1" localSheetId="6">'RECHAZOS '!#REF!</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_TS" localSheetId="6">'RECHAZOS '!$D$4:$K$7</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_VZ" localSheetId="6">'RECHAZOS '!$D$8:$L$9</definedName>
-    <definedName name="RECHAZADO_OB_PEHONQ721_YN" localSheetId="6">'RECHAZOS '!$D$10:$L$11</definedName>
-    <definedName name="RECHAZO_BBVAPEHONEXT2Q621_NT" localSheetId="6">'RECHAZOS '!$D$71:$L$71</definedName>
+    <definedName name="OB_PEHONQ721_YN_RECHAZO" localSheetId="7">'RECHAZOS '!#REF!</definedName>
+    <definedName name="OPERADO_OB_PEHONQ721_CH" localSheetId="7">'RECHAZOS '!$D$12:$M$1078</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_AG" localSheetId="7">'RECHAZOS '!$A$23:$L$24</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_BC" localSheetId="7">'RECHAZOS '!$A$25:$L$27</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_CC" localSheetId="7">'RECHAZOS '!$A$28:$L$29</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_CH" localSheetId="7">'RECHAZOS '!$A$12:$L$18</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_CL" localSheetId="7">'RECHAZOS '!$A$30:$L$30</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_CS" localSheetId="7">'RECHAZOS '!$A$31:$L$31</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_DG" localSheetId="7">'RECHAZOS '!$A$19:$L$19</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_DG_1" localSheetId="7">'RECHAZOS '!#REF!</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_GR" localSheetId="7">'RECHAZOS '!$A$20:$L$21</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_HG" localSheetId="7">'RECHAZOS '!$A$32:$L$32</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_HG_PEN" localSheetId="7">'RECHAZOS '!$A$22:$L$22</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_JC" localSheetId="7">'RECHAZOS '!$A$33:$L$34</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_MN" localSheetId="7">'RECHAZOS '!$A$35:$L$38</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_MX" localSheetId="7">'RECHAZOS '!$A$39:$L$44</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_NL" localSheetId="7">'RECHAZOS '!$A$45:$L$46</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_OC" localSheetId="7">'RECHAZOS '!$A$47:$L$51</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_OFC" localSheetId="7">'RECHAZOS '!$A$52:$L$52</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_QR" localSheetId="7">'RECHAZOS '!$A$53:$L$53</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_QT" localSheetId="7">'RECHAZOS '!$A$54:$L$55</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_SL" localSheetId="7">'RECHAZOS '!#REF!</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_SL_1" localSheetId="7">'RECHAZOS '!$D$2:$L$2</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_SP" localSheetId="7">'RECHAZOS '!#REF!</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_SP_1" localSheetId="7">'RECHAZOS '!#REF!</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_TS" localSheetId="7">'RECHAZOS '!$D$4:$K$7</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_VZ" localSheetId="7">'RECHAZOS '!$D$8:$L$9</definedName>
+    <definedName name="RECHAZADO_OB_PEHONQ721_YN" localSheetId="7">'RECHAZOS '!$D$10:$L$11</definedName>
+    <definedName name="RECHAZO_BBVAPEHONEXT2Q621_NT" localSheetId="7">'RECHAZOS '!$D$71:$L$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -482,7 +483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6472" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6491" uniqueCount="1223">
   <si>
     <t>012180001022031113</t>
   </si>
@@ -4145,6 +4146,12 @@
   </si>
   <si>
     <t>LOPEZ MIRANDA VICTOR ALBERTO</t>
+  </si>
+  <si>
+    <t>OB_PE HONORARIOS ORDINARIA NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTO RECHAZADO REAL </t>
   </si>
 </sst>
 </file>
@@ -4154,7 +4161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4184,6 +4191,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -4269,7 +4282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4342,6 +4355,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6353,7 +6370,91 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="JLE ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="RECHAZO">
+  <location ref="R1:S9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" #" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="JLE ">
   <location ref="N1:P25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -6487,10 +6588,10 @@
     <dataField name=" MONTO" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -6510,172 +6611,88 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="RECHAZO">
-  <location ref="R1:S9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name=" #" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="2">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="150421 CLABE" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="OPERADO OB PEHONQ721 CH" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 JC" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 BC" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 HG" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 GR" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 SL_1" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 TS" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 HG PEN" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 OC" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 AG" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 NL" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 OFC" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 VZ" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 MX" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CH" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 QR" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CL" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 JC" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CS" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 GR" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CC" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 OFC" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 NL" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 QT" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="OPERADO OB PEHONQ721 CH" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 HG PEN" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CS" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZO BBVAPEHONEXT2Q621 NT" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 DG" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 HG" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 AG" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 MX" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CC" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 MN" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 TS" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 VZ" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CL" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 QR" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6683,15 +6700,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 BC" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 DG" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 SL_1" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZO BBVAPEHONEXT2Q621 NT" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 OC" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 MN" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33643,6 +33660,1062 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F1" t="s">
+        <v>913</v>
+      </c>
+      <c r="G1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="C2">
+        <v>3945.97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="C3">
+        <v>12024.64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="C4">
+        <v>6939.0399999999991</v>
+      </c>
+      <c r="D4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="C5">
+        <v>9633.0499999999993</v>
+      </c>
+      <c r="D5" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="C6">
+        <v>2527.14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="C7">
+        <v>2677.62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C8">
+        <v>2894.15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="C9">
+        <v>5756.17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="C10">
+        <v>13537.99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="C11">
+        <v>16039.24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="C12">
+        <v>14894.94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="C13">
+        <v>1269.79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="C14">
+        <v>1353.25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="C15">
+        <v>841.19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="C16">
+        <v>1684.35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>827</v>
+      </c>
+      <c r="J16" t="s">
+        <v>914</v>
+      </c>
+      <c r="K16" t="s">
+        <v>915</v>
+      </c>
+      <c r="L16" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="C17">
+        <v>481161.58999999997</v>
+      </c>
+      <c r="D17" t="s">
+        <v>834</v>
+      </c>
+      <c r="F17">
+        <v>11945.88</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>810</v>
+      </c>
+      <c r="J17" s="6">
+        <v>3478605.49</v>
+      </c>
+      <c r="K17" s="6">
+        <f>VLOOKUP(I17,$A$17:$C$38,3,FALSE)</f>
+        <v>3458824.9499999769</v>
+      </c>
+      <c r="L17" s="12">
+        <f>J17-K17</f>
+        <v>19780.54000002332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="C18">
+        <v>3458824.9499999769</v>
+      </c>
+      <c r="D18" t="s">
+        <v>834</v>
+      </c>
+      <c r="F18">
+        <v>19780.54</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>847</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1692103.92</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" ref="K18:K48" si="0">VLOOKUP(I18,$A$17:$C$38,3,FALSE)</f>
+        <v>1680455.2600000089</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" ref="L18:L48" si="1">J18-K18</f>
+        <v>11648.659999991069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="C19">
+        <v>1172600.6200000036</v>
+      </c>
+      <c r="D19" t="s">
+        <v>834</v>
+      </c>
+      <c r="F19">
+        <v>9659.1200000000008</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>831</v>
+      </c>
+      <c r="J19" s="6">
+        <v>6354707.9100000001</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="0"/>
+        <v>6323980.1300000874</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="1"/>
+        <v>30727.779999912716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="C20">
+        <v>6323980.1300000874</v>
+      </c>
+      <c r="D20" t="s">
+        <v>834</v>
+      </c>
+      <c r="F20">
+        <v>35557.340000000004</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>832</v>
+      </c>
+      <c r="J20" s="6">
+        <v>11937603.16</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="0"/>
+        <v>11903069.6299999</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="1"/>
+        <v>34533.530000099912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="C21">
+        <v>674043.3599999994</v>
+      </c>
+      <c r="D21" t="s">
+        <v>834</v>
+      </c>
+      <c r="F21">
+        <v>5972.94</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>820</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1073184.6000000001</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="0"/>
+        <v>1063525.4800000032</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="1"/>
+        <v>9659.1199999968521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="C22">
+        <v>3880024.7300000158</v>
+      </c>
+      <c r="D22" t="s">
+        <v>834</v>
+      </c>
+      <c r="F22">
+        <v>777.7</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>840</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1034912.19</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="0"/>
+        <v>1025720.1200000005</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="1"/>
+        <v>9192.0699999994831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="C23">
+        <v>429468.71999999991</v>
+      </c>
+      <c r="D23" t="s">
+        <v>834</v>
+      </c>
+      <c r="F23">
+        <v>4829.5600000000004</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>805</v>
+      </c>
+      <c r="J23" s="6">
+        <v>680016.3</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="0"/>
+        <v>674043.3599999994</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="1"/>
+        <v>5972.9400000006426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="C24">
+        <v>6037031.0100000128</v>
+      </c>
+      <c r="D24" t="s">
+        <v>834</v>
+      </c>
+      <c r="F24">
+        <v>10508.27</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>809</v>
+      </c>
+      <c r="J24" s="6">
+        <v>481161.59</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="0"/>
+        <v>481161.58999999997</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="C25">
+        <v>500798.32000000018</v>
+      </c>
+      <c r="D25" t="s">
+        <v>834</v>
+      </c>
+      <c r="F25">
+        <v>4362.51</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>811</v>
+      </c>
+      <c r="J25" s="6">
+        <v>174344.55</v>
+      </c>
+      <c r="K25" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L25" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="C26">
+        <v>4482708.4600000195</v>
+      </c>
+      <c r="D26" t="s">
+        <v>834</v>
+      </c>
+      <c r="F26">
+        <v>11944.18</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>816</v>
+      </c>
+      <c r="J26" s="6">
+        <v>4230206.0999999996</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="0"/>
+        <v>4208602.8000000287</v>
+      </c>
+      <c r="L26" s="12">
+        <f t="shared" si="1"/>
+        <v>21603.299999970943</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="C27">
+        <v>4208602.8000000287</v>
+      </c>
+      <c r="D27" t="s">
+        <v>834</v>
+      </c>
+      <c r="F27">
+        <v>21603.300000000003</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>841</v>
+      </c>
+      <c r="J27" s="6">
+        <v>2059301.92</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="0"/>
+        <v>2053090.7099999983</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="1"/>
+        <v>6211.2100000015926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="C28">
+        <v>11903069.6299999</v>
+      </c>
+      <c r="D28" t="s">
+        <v>834</v>
+      </c>
+      <c r="F28">
+        <v>34533.53</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>842</v>
+      </c>
+      <c r="J28" s="6">
+        <v>973014.58</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="0"/>
+        <v>967041.63999999803</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="1"/>
+        <v>5972.9400000019232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="C29">
+        <v>1025720.1200000005</v>
+      </c>
+      <c r="D29" t="s">
+        <v>834</v>
+      </c>
+      <c r="F29">
+        <v>9192.07</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>817</v>
+      </c>
+      <c r="J29" s="6">
+        <v>519110.25</v>
+      </c>
+      <c r="K29" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L29" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="C30">
+        <v>7090652.6299999217</v>
+      </c>
+      <c r="D30" t="s">
+        <v>834</v>
+      </c>
+      <c r="F30">
+        <v>30867.9</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>833</v>
+      </c>
+      <c r="J30" s="6">
+        <v>342688.75</v>
+      </c>
+      <c r="K30" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L30" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="C31">
+        <v>2053090.7099999983</v>
+      </c>
+      <c r="D31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F31">
+        <v>6211.21</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>824</v>
+      </c>
+      <c r="J31" s="6">
+        <v>304569.76</v>
+      </c>
+      <c r="K31" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L31" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="C32">
+        <v>967041.63999999803</v>
+      </c>
+      <c r="D32" t="s">
+        <v>834</v>
+      </c>
+      <c r="F32">
+        <v>5972.94</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>819</v>
+      </c>
+      <c r="J32" s="6">
+        <v>7121520.5300000003</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="0"/>
+        <v>7090652.6299999217</v>
+      </c>
+      <c r="L32" s="12">
+        <f t="shared" si="1"/>
+        <v>30867.900000078604</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="C33">
+        <v>1063525.4800000032</v>
+      </c>
+      <c r="D33" t="s">
+        <v>834</v>
+      </c>
+      <c r="F33">
+        <v>9659.1200000000008</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>823</v>
+      </c>
+      <c r="J33" s="6">
+        <v>9189899.4800000004</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="0"/>
+        <v>9179391.2099998333</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" si="1"/>
+        <v>10508.270000167191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="C34">
+        <v>5326437.0599999875</v>
+      </c>
+      <c r="D34" t="s">
+        <v>834</v>
+      </c>
+      <c r="F34">
+        <v>4829.5600000000004</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>835</v>
+      </c>
+      <c r="J34" s="6">
+        <v>500798.32</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="0"/>
+        <v>500798.32000000018</v>
+      </c>
+      <c r="L34" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="C35">
+        <v>472242.14999999997</v>
+      </c>
+      <c r="D35" t="s">
+        <v>834</v>
+      </c>
+      <c r="F35">
+        <v>4362.51</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>813</v>
+      </c>
+      <c r="J35" s="6">
+        <v>2233141.94</v>
+      </c>
+      <c r="K35" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L35" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="C36">
+        <v>3332171.8899999969</v>
+      </c>
+      <c r="D36" t="s">
+        <v>834</v>
+      </c>
+      <c r="F36">
+        <v>26110.969999999998</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>818</v>
+      </c>
+      <c r="J36" s="6">
+        <v>826217.78</v>
+      </c>
+      <c r="K36" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L36" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="C37">
+        <v>9179391.2099998333</v>
+      </c>
+      <c r="D37" t="s">
+        <v>834</v>
+      </c>
+      <c r="F37">
+        <v>10508.27</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>822</v>
+      </c>
+      <c r="J37" s="6">
+        <v>3358282.86</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" si="0"/>
+        <v>3332171.8899999969</v>
+      </c>
+      <c r="L37" s="12">
+        <f t="shared" si="1"/>
+        <v>26110.970000002999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C38">
+        <v>1680455.2600000089</v>
+      </c>
+      <c r="D38" t="s">
+        <v>834</v>
+      </c>
+      <c r="F38">
+        <v>11648.66</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>839</v>
+      </c>
+      <c r="J38" s="6">
+        <v>6047539.2800000003</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="0"/>
+        <v>6037031.0100000128</v>
+      </c>
+      <c r="L38" s="12">
+        <f t="shared" si="1"/>
+        <v>10508.269999987446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>846</v>
+      </c>
+      <c r="J39" s="6">
+        <v>818862.78</v>
+      </c>
+      <c r="K39" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L39" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>838</v>
+      </c>
+      <c r="J40" s="6">
+        <v>429468.72</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="0"/>
+        <v>429468.71999999991</v>
+      </c>
+      <c r="L40" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>821</v>
+      </c>
+      <c r="J41" s="6">
+        <v>1098093.8</v>
+      </c>
+      <c r="K41" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L41" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>845</v>
+      </c>
+      <c r="J42" s="6">
+        <v>1415609.39</v>
+      </c>
+      <c r="K42" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L42" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>815</v>
+      </c>
+      <c r="J43" s="6">
+        <v>1510245.89</v>
+      </c>
+      <c r="K43" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L43" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>837</v>
+      </c>
+      <c r="J44" s="6">
+        <v>3880802.43</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" si="0"/>
+        <v>3880024.7300000158</v>
+      </c>
+      <c r="L44" s="12">
+        <f t="shared" si="1"/>
+        <v>777.69999998435378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>844</v>
+      </c>
+      <c r="J45" s="6">
+        <v>472242.15</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" si="0"/>
+        <v>472242.14999999997</v>
+      </c>
+      <c r="L45" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>814</v>
+      </c>
+      <c r="J46" s="6">
+        <v>4494652.6399999997</v>
+      </c>
+      <c r="K46" s="6">
+        <f t="shared" si="0"/>
+        <v>4482708.4600000195</v>
+      </c>
+      <c r="L46" s="12">
+        <f t="shared" si="1"/>
+        <v>11944.179999980144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>843</v>
+      </c>
+      <c r="J47" s="6">
+        <v>5331266.62</v>
+      </c>
+      <c r="K47" s="6">
+        <f t="shared" si="0"/>
+        <v>5326437.0599999875</v>
+      </c>
+      <c r="L47" s="12">
+        <f t="shared" si="1"/>
+        <v>4829.5600000126287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>812</v>
+      </c>
+      <c r="J48" s="6">
+        <v>290077.37</v>
+      </c>
+      <c r="K48" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L48" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
@@ -38994,11 +40067,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39008,10 +40081,12 @@
     <col min="5" max="5" width="11" style="6"/>
     <col min="6" max="7" width="14.625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="20"/>
+    <col min="9" max="9" width="11.125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11" style="20"/>
+    <col min="12" max="12" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>753</v>
       </c>
@@ -39037,10 +40112,13 @@
         <v>940</v>
       </c>
       <c r="I1" s="24" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>809</v>
       </c>
@@ -39064,7 +40142,7 @@
         <v>41671.619999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>810</v>
       </c>
@@ -39088,7 +40166,7 @@
         <v>73036.039999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>811</v>
       </c>
@@ -39112,7 +40190,7 @@
         <v>3397.95</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>805</v>
       </c>
@@ -39136,7 +40214,7 @@
         <v>54401.509999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>812</v>
       </c>
@@ -39160,7 +40238,7 @@
         <v>8837.4000000000015</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>813</v>
       </c>
@@ -39184,7 +40262,7 @@
         <v>10849</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>814</v>
       </c>
@@ -39208,7 +40286,7 @@
         <v>4995.3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>815</v>
       </c>
@@ -39232,7 +40310,7 @@
         <v>261609.78000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>816</v>
       </c>
@@ -39258,11 +40336,11 @@
       <c r="H10" s="6">
         <v>1437.61</v>
       </c>
-      <c r="I10" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>817</v>
       </c>
@@ -39286,7 +40364,7 @@
         <v>20619.030000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>818</v>
       </c>
@@ -39312,11 +40390,11 @@
       <c r="H12" s="6">
         <v>3004.48</v>
       </c>
-      <c r="I12" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>819</v>
       </c>
@@ -39342,11 +40420,11 @@
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>820</v>
       </c>
@@ -39372,11 +40450,11 @@
       <c r="H14" s="6">
         <v>0</v>
       </c>
-      <c r="I14" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>821</v>
       </c>
@@ -39402,11 +40480,11 @@
       <c r="H15" s="6">
         <v>0</v>
       </c>
-      <c r="I15" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>822</v>
       </c>
@@ -39432,11 +40510,11 @@
       <c r="H16" s="6">
         <v>0</v>
       </c>
-      <c r="I16" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>823</v>
       </c>
@@ -39462,11 +40540,11 @@
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>824</v>
       </c>
@@ -39492,11 +40570,11 @@
       <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="I18" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>809</v>
       </c>
@@ -39522,11 +40600,11 @@
       <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="I19" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>810</v>
       </c>
@@ -39552,11 +40630,11 @@
       <c r="H20" s="6">
         <v>0</v>
       </c>
-      <c r="I20" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>836</v>
       </c>
@@ -39582,11 +40660,11 @@
       <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>805</v>
       </c>
@@ -39612,11 +40690,11 @@
       <c r="H22" s="6">
         <v>0</v>
       </c>
-      <c r="I22" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>812</v>
       </c>
@@ -39642,11 +40720,11 @@
       <c r="H23" s="6">
         <v>0</v>
       </c>
-      <c r="I23" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>838</v>
       </c>
@@ -39672,11 +40750,11 @@
       <c r="H24" s="6">
         <v>0</v>
       </c>
-      <c r="I24" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>813</v>
       </c>
@@ -39702,11 +40780,11 @@
       <c r="H25" s="6">
         <v>0</v>
       </c>
-      <c r="I25" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>815</v>
       </c>
@@ -39732,11 +40810,11 @@
       <c r="H26" s="6">
         <v>0</v>
       </c>
-      <c r="I26" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>816</v>
       </c>
@@ -39762,11 +40840,11 @@
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>832</v>
       </c>
@@ -39792,11 +40870,11 @@
       <c r="H28" s="6">
         <v>0</v>
       </c>
-      <c r="I28" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>818</v>
       </c>
@@ -39822,11 +40900,11 @@
       <c r="H29" s="6">
         <v>0</v>
       </c>
-      <c r="I29" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>820</v>
       </c>
@@ -39852,11 +40930,11 @@
       <c r="H30" s="6">
         <v>0</v>
       </c>
-      <c r="I30" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>845</v>
       </c>
@@ -39882,11 +40960,11 @@
       <c r="H31" s="6">
         <v>0</v>
       </c>
-      <c r="I31" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>821</v>
       </c>
@@ -39912,11 +40990,11 @@
       <c r="H32" s="6">
         <v>0</v>
       </c>
-      <c r="I32" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>824</v>
       </c>
@@ -39942,11 +41020,11 @@
       <c r="H33" s="6">
         <v>0</v>
       </c>
-      <c r="I33" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>809</v>
       </c>
@@ -39972,11 +41050,11 @@
       <c r="H34" s="6">
         <v>5972.94</v>
       </c>
-      <c r="I34" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>810</v>
       </c>
@@ -40002,11 +41080,11 @@
       <c r="H35" s="6">
         <v>11945.88</v>
       </c>
-      <c r="I35" s="20">
+      <c r="J35" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>811</v>
       </c>
@@ -40030,7 +41108,7 @@
         <v>1218788.8699999969</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>836</v>
       </c>
@@ -40054,7 +41132,7 @@
         <v>923113.83000000229</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>831</v>
       </c>
@@ -40080,11 +41158,11 @@
       <c r="H38" s="6">
         <v>4829.5600000000004</v>
       </c>
-      <c r="I38" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>805</v>
       </c>
@@ -40108,7 +41186,7 @@
         <v>6795724.6900000703</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>812</v>
       </c>
@@ -40132,7 +41210,7 @@
         <v>1487320.0700000026</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>837</v>
       </c>
@@ -40156,7 +41234,7 @@
         <v>8324521.2899998855</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>838</v>
       </c>
@@ -40180,7 +41258,7 @@
         <v>4054280.6500000297</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>839</v>
       </c>
@@ -40204,7 +41282,7 @@
         <v>3971116.2700000028</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>813</v>
       </c>
@@ -40228,7 +41306,7 @@
         <v>10580814.219999975</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>835</v>
       </c>
@@ -40252,7 +41330,7 @@
         <v>6311406.1799999271</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>814</v>
       </c>
@@ -40278,11 +41356,11 @@
       <c r="H46" s="6">
         <v>26725.270000000004</v>
       </c>
-      <c r="I46" s="20">
+      <c r="J46" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>815</v>
       </c>
@@ -40306,7 +41384,7 @@
         <v>32066887.979995623</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>816</v>
       </c>
@@ -40332,11 +41410,11 @@
       <c r="H48" s="6">
         <v>4829.5600000000004</v>
       </c>
-      <c r="I48" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>817</v>
       </c>
@@ -40360,7 +41438,7 @@
         <v>3581767.4600000298</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>832</v>
       </c>
@@ -40386,11 +41464,11 @@
       <c r="H50" s="6">
         <v>11038.41</v>
       </c>
-      <c r="I50" s="20">
+      <c r="J50" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>840</v>
       </c>
@@ -40414,7 +41492,7 @@
         <v>11976268.720000004</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>818</v>
       </c>
@@ -40440,11 +41518,11 @@
       <c r="H52" s="6">
         <v>7312.18</v>
       </c>
-      <c r="I52" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>819</v>
       </c>
@@ -40468,7 +41546,7 @@
         <v>2898370.0100000184</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>841</v>
       </c>
@@ -40489,7 +41567,7 @@
         <v>5273342.8500000043</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>833</v>
       </c>
@@ -40515,11 +41593,11 @@
       <c r="H55" s="6">
         <v>5125.08</v>
       </c>
-      <c r="I55" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>842</v>
       </c>
@@ -40543,7 +41621,7 @@
         <v>3511969.2799999877</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>820</v>
       </c>
@@ -40567,7 +41645,7 @@
         <v>3835451.3700000271</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>843</v>
       </c>
@@ -40591,7 +41669,7 @@
         <v>3190901.4400000218</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>844</v>
       </c>
@@ -40615,7 +41693,7 @@
         <v>6083223.829999934</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>845</v>
       </c>
@@ -40639,7 +41717,7 @@
         <v>5986725.0199999912</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>821</v>
       </c>
@@ -40663,7 +41741,7 @@
         <v>4155218.5300000296</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>846</v>
       </c>
@@ -40687,7 +41765,7 @@
         <v>1997026.4400000118</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>822</v>
       </c>
@@ -40713,11 +41791,11 @@
       <c r="H63" s="6">
         <v>7312.18</v>
       </c>
-      <c r="I63" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>823</v>
       </c>
@@ -40741,7 +41819,7 @@
         <v>9513600.8299999479</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>847</v>
       </c>
@@ -40765,7 +41843,7 @@
         <v>3127847.4200000209</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>824</v>
       </c>
@@ -40789,7 +41867,7 @@
         <v>3483870.130000025</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>851</v>
       </c>
@@ -40815,11 +41893,11 @@
       <c r="H67" s="6">
         <v>0</v>
       </c>
-      <c r="I67" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>809</v>
       </c>
@@ -40845,11 +41923,11 @@
       <c r="H68" s="6">
         <v>11945.88</v>
       </c>
-      <c r="I68" s="20">
+      <c r="J68" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>810</v>
       </c>
@@ -40875,11 +41953,14 @@
       <c r="H69" s="6">
         <v>19780.54</v>
       </c>
-      <c r="I69" s="20">
+      <c r="I69" s="6">
+        <v>19780.54</v>
+      </c>
+      <c r="J69" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>811</v>
       </c>
@@ -40900,7 +41981,7 @@
         <v>174344.55000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>836</v>
       </c>
@@ -40923,11 +42004,14 @@
       <c r="H71" s="6">
         <v>9659.1200000000008</v>
       </c>
-      <c r="I71" s="20">
+      <c r="I71" s="6">
+        <v>9659.1200000000008</v>
+      </c>
+      <c r="J71" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>831</v>
       </c>
@@ -40953,11 +42037,14 @@
       <c r="H72" s="6">
         <v>35557.340000000004</v>
       </c>
-      <c r="I72" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I72" s="6">
+        <v>30727.78</v>
+      </c>
+      <c r="J72" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>805</v>
       </c>
@@ -40983,11 +42070,14 @@
       <c r="H73" s="6">
         <v>5972.94</v>
       </c>
-      <c r="I73" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I73" s="6">
+        <v>5972.94</v>
+      </c>
+      <c r="J73" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>812</v>
       </c>
@@ -41011,7 +42101,7 @@
         <v>290077.36999999994</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>837</v>
       </c>
@@ -41037,11 +42127,14 @@
       <c r="H75" s="6">
         <v>777.7</v>
       </c>
-      <c r="I75" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I75" s="6">
+        <v>777.7</v>
+      </c>
+      <c r="J75" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>838</v>
       </c>
@@ -41067,11 +42160,11 @@
       <c r="H76" s="6">
         <v>4829.5600000000004</v>
       </c>
-      <c r="I76" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>839</v>
       </c>
@@ -41097,11 +42190,14 @@
       <c r="H77" s="6">
         <v>10508.27</v>
       </c>
-      <c r="I77" s="20">
+      <c r="I77" s="6">
+        <v>10508.27</v>
+      </c>
+      <c r="J77" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>813</v>
       </c>
@@ -41125,7 +42221,7 @@
         <v>2233141.9400000125</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>835</v>
       </c>
@@ -41148,11 +42244,11 @@
       <c r="H79" s="6">
         <v>4362.51</v>
       </c>
-      <c r="I79" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>814</v>
       </c>
@@ -41178,11 +42274,14 @@
       <c r="H80" s="6">
         <v>11944.18</v>
       </c>
-      <c r="I80" s="20">
+      <c r="I80" s="6">
+        <v>11944.18</v>
+      </c>
+      <c r="J80" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>815</v>
       </c>
@@ -41206,7 +42305,7 @@
         <v>1510245.8900000087</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>816</v>
       </c>
@@ -41232,11 +42331,14 @@
       <c r="H82" s="6">
         <v>21603.300000000003</v>
       </c>
-      <c r="I82" s="20">
+      <c r="I82" s="6">
+        <v>21603.300000000003</v>
+      </c>
+      <c r="J82" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>817</v>
       </c>
@@ -41257,7 +42359,7 @@
         <v>519110.25</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>832</v>
       </c>
@@ -41283,11 +42385,14 @@
       <c r="H84" s="6">
         <v>34533.53</v>
       </c>
-      <c r="I84" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I84" s="6">
+        <v>34533.53</v>
+      </c>
+      <c r="J84" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>840</v>
       </c>
@@ -41313,11 +42418,14 @@
       <c r="H85" s="6">
         <v>9192.07</v>
       </c>
-      <c r="I85" s="20">
+      <c r="I85" s="6">
+        <v>9192.07</v>
+      </c>
+      <c r="J85" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>818</v>
       </c>
@@ -41341,7 +42449,7 @@
         <v>826217.78000000142</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>819</v>
       </c>
@@ -41367,11 +42475,14 @@
       <c r="H87" s="6">
         <v>30867.9</v>
       </c>
-      <c r="I87" s="20">
+      <c r="I87" s="6">
+        <v>30867.899999999998</v>
+      </c>
+      <c r="J87" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>841</v>
       </c>
@@ -41397,11 +42508,14 @@
       <c r="H88" s="6">
         <v>6211.21</v>
       </c>
-      <c r="I88" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I88" s="6">
+        <v>6211.21</v>
+      </c>
+      <c r="J88" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>833</v>
       </c>
@@ -41422,7 +42536,7 @@
         <v>342688.75000000006</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>842</v>
       </c>
@@ -41445,11 +42559,14 @@
       <c r="H90" s="6">
         <v>5972.94</v>
       </c>
-      <c r="I90" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I90" s="6">
+        <v>5972.94</v>
+      </c>
+      <c r="J90" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>820</v>
       </c>
@@ -41475,11 +42592,14 @@
       <c r="H91" s="6">
         <v>9659.1200000000008</v>
       </c>
-      <c r="I91" s="20">
+      <c r="I91" s="6">
+        <v>9659.1200000000008</v>
+      </c>
+      <c r="J91" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>843</v>
       </c>
@@ -41505,11 +42625,14 @@
       <c r="H92" s="6">
         <v>4829.5600000000004</v>
       </c>
-      <c r="I92" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I92" s="6">
+        <v>4829.5600000000004</v>
+      </c>
+      <c r="J92" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>844</v>
       </c>
@@ -41535,11 +42658,11 @@
       <c r="H93" s="6">
         <v>4362.51</v>
       </c>
-      <c r="I93" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>845</v>
       </c>
@@ -41563,7 +42686,7 @@
         <v>1415609.3899999983</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>821</v>
       </c>
@@ -41587,7 +42710,7 @@
         <v>1098093.8000000038</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>846</v>
       </c>
@@ -41611,7 +42734,7 @@
         <v>818862.78000000154</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>822</v>
       </c>
@@ -41637,11 +42760,14 @@
       <c r="H97" s="6">
         <v>26110.969999999998</v>
       </c>
-      <c r="I97" s="20">
+      <c r="I97" s="6">
+        <v>26110.969999999998</v>
+      </c>
+      <c r="J97" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>823</v>
       </c>
@@ -41667,11 +42793,14 @@
       <c r="H98" s="6">
         <v>10508.27</v>
       </c>
-      <c r="I98" s="20">
+      <c r="I98" s="6">
+        <v>10508.27</v>
+      </c>
+      <c r="J98" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>847</v>
       </c>
@@ -41697,11 +42826,14 @@
       <c r="H99" s="6">
         <v>11648.66</v>
       </c>
-      <c r="I99" s="20">
+      <c r="I99" s="6">
+        <v>11648.66</v>
+      </c>
+      <c r="J99" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>824</v>
       </c>
@@ -41723,13 +42855,248 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:M100"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1" s="36" t="str">
+        <f>RIGHT(A1,2)</f>
+        <v>BC</v>
+      </c>
+      <c r="C1" s="35">
+        <v>19780.54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>928</v>
+      </c>
+      <c r="B2" s="36" t="str">
+        <f t="shared" ref="B2:B18" si="0">RIGHT(A2,2)</f>
+        <v>CC</v>
+      </c>
+      <c r="C2" s="35">
+        <v>9659.1200000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="B3" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>CH</v>
+      </c>
+      <c r="C3" s="35">
+        <v>30727.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>933</v>
+      </c>
+      <c r="B4" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>CL</v>
+      </c>
+      <c r="C4" s="35">
+        <v>5972.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>918</v>
+      </c>
+      <c r="B5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>CS</v>
+      </c>
+      <c r="C5" s="35">
+        <v>777.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>927</v>
+      </c>
+      <c r="B6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>GR</v>
+      </c>
+      <c r="C6" s="35">
+        <v>10508.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="B7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>JC</v>
+      </c>
+      <c r="C7" s="35">
+        <v>11944.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>925</v>
+      </c>
+      <c r="B8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>MN</v>
+      </c>
+      <c r="C8" s="35">
+        <v>21603.300000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>919</v>
+      </c>
+      <c r="B9" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>MX</v>
+      </c>
+      <c r="C9" s="35">
+        <v>34533.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B10" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>NL</v>
+      </c>
+      <c r="C10" s="35">
+        <v>9192.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>920</v>
+      </c>
+      <c r="B11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>OC</v>
+      </c>
+      <c r="C11" s="35">
+        <v>30867.899999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>936</v>
+      </c>
+      <c r="B12" s="36" t="str">
+        <f>RIGHT(A12,3)</f>
+        <v>OFC</v>
+      </c>
+      <c r="C12" s="35">
+        <v>6211.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>934</v>
+      </c>
+      <c r="B13" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>QR</v>
+      </c>
+      <c r="C13" s="35">
+        <v>5972.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="B14" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>QT</v>
+      </c>
+      <c r="C14" s="35">
+        <v>9659.1200000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>930</v>
+      </c>
+      <c r="B15" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>SL</v>
+      </c>
+      <c r="C15" s="35">
+        <v>4829.5600000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>935</v>
+      </c>
+      <c r="B16" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>TS</v>
+      </c>
+      <c r="C16" s="35">
+        <v>26110.969999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>926</v>
+      </c>
+      <c r="B17" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>VZ</v>
+      </c>
+      <c r="C17" s="35">
+        <v>10508.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>922</v>
+      </c>
+      <c r="B18" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>YN</v>
+      </c>
+      <c r="C18" s="35">
+        <v>11648.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1078"/>
   <sheetViews>
@@ -50727,7 +52094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I54"/>
@@ -51843,1060 +53210,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B1" t="s">
-        <v>826</v>
-      </c>
-      <c r="C1" t="s">
-        <v>912</v>
-      </c>
-      <c r="D1" t="s">
-        <v>830</v>
-      </c>
-      <c r="F1" t="s">
-        <v>913</v>
-      </c>
-      <c r="G1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="C2">
-        <v>3945.97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="C3">
-        <v>12024.64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="C4">
-        <v>6939.0399999999991</v>
-      </c>
-      <c r="D4" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="C5">
-        <v>9633.0499999999993</v>
-      </c>
-      <c r="D5" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="C6">
-        <v>2527.14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>838</v>
-      </c>
-      <c r="C7">
-        <v>2677.62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="C8">
-        <v>2894.15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="C9">
-        <v>5756.17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="C10">
-        <v>13537.99</v>
-      </c>
-      <c r="D10" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="C11">
-        <v>16039.24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="C12">
-        <v>14894.94</v>
-      </c>
-      <c r="D12" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="C13">
-        <v>1269.79</v>
-      </c>
-      <c r="D13" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="C14">
-        <v>1353.25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="C15">
-        <v>841.19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>824</v>
-      </c>
-      <c r="C16">
-        <v>1684.35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>827</v>
-      </c>
-      <c r="J16" t="s">
-        <v>914</v>
-      </c>
-      <c r="K16" t="s">
-        <v>915</v>
-      </c>
-      <c r="L16" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="C17">
-        <v>481161.58999999997</v>
-      </c>
-      <c r="D17" t="s">
-        <v>834</v>
-      </c>
-      <c r="F17">
-        <v>11945.88</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>810</v>
-      </c>
-      <c r="J17" s="6">
-        <v>3478605.49</v>
-      </c>
-      <c r="K17" s="6">
-        <f>VLOOKUP(I17,$A$17:$C$38,3,FALSE)</f>
-        <v>3458824.9499999769</v>
-      </c>
-      <c r="L17" s="12">
-        <f>J17-K17</f>
-        <v>19780.54000002332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="C18">
-        <v>3458824.9499999769</v>
-      </c>
-      <c r="D18" t="s">
-        <v>834</v>
-      </c>
-      <c r="F18">
-        <v>19780.54</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s">
-        <v>847</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1692103.92</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" ref="K18:K48" si="0">VLOOKUP(I18,$A$17:$C$38,3,FALSE)</f>
-        <v>1680455.2600000089</v>
-      </c>
-      <c r="L18" s="12">
-        <f t="shared" ref="L18:L48" si="1">J18-K18</f>
-        <v>11648.659999991069</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="C19">
-        <v>1172600.6200000036</v>
-      </c>
-      <c r="D19" t="s">
-        <v>834</v>
-      </c>
-      <c r="F19">
-        <v>9659.1200000000008</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>831</v>
-      </c>
-      <c r="J19" s="6">
-        <v>6354707.9100000001</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" si="0"/>
-        <v>6323980.1300000874</v>
-      </c>
-      <c r="L19" s="12">
-        <f t="shared" si="1"/>
-        <v>30727.779999912716</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="C20">
-        <v>6323980.1300000874</v>
-      </c>
-      <c r="D20" t="s">
-        <v>834</v>
-      </c>
-      <c r="F20">
-        <v>35557.340000000004</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="I20" t="s">
-        <v>832</v>
-      </c>
-      <c r="J20" s="6">
-        <v>11937603.16</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="0"/>
-        <v>11903069.6299999</v>
-      </c>
-      <c r="L20" s="12">
-        <f t="shared" si="1"/>
-        <v>34533.530000099912</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="C21">
-        <v>674043.3599999994</v>
-      </c>
-      <c r="D21" t="s">
-        <v>834</v>
-      </c>
-      <c r="F21">
-        <v>5972.94</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>820</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1073184.6000000001</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="0"/>
-        <v>1063525.4800000032</v>
-      </c>
-      <c r="L21" s="12">
-        <f t="shared" si="1"/>
-        <v>9659.1199999968521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="C22">
-        <v>3880024.7300000158</v>
-      </c>
-      <c r="D22" t="s">
-        <v>834</v>
-      </c>
-      <c r="F22">
-        <v>777.7</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>840</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1034912.19</v>
-      </c>
-      <c r="K22" s="6">
-        <f t="shared" si="0"/>
-        <v>1025720.1200000005</v>
-      </c>
-      <c r="L22" s="12">
-        <f t="shared" si="1"/>
-        <v>9192.0699999994831</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>838</v>
-      </c>
-      <c r="C23">
-        <v>429468.71999999991</v>
-      </c>
-      <c r="D23" t="s">
-        <v>834</v>
-      </c>
-      <c r="F23">
-        <v>4829.5600000000004</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>805</v>
-      </c>
-      <c r="J23" s="6">
-        <v>680016.3</v>
-      </c>
-      <c r="K23" s="6">
-        <f t="shared" si="0"/>
-        <v>674043.3599999994</v>
-      </c>
-      <c r="L23" s="12">
-        <f t="shared" si="1"/>
-        <v>5972.9400000006426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>839</v>
-      </c>
-      <c r="C24">
-        <v>6037031.0100000128</v>
-      </c>
-      <c r="D24" t="s">
-        <v>834</v>
-      </c>
-      <c r="F24">
-        <v>10508.27</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="I24" t="s">
-        <v>809</v>
-      </c>
-      <c r="J24" s="6">
-        <v>481161.59</v>
-      </c>
-      <c r="K24" s="6">
-        <f t="shared" si="0"/>
-        <v>481161.58999999997</v>
-      </c>
-      <c r="L24" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="C25">
-        <v>500798.32000000018</v>
-      </c>
-      <c r="D25" t="s">
-        <v>834</v>
-      </c>
-      <c r="F25">
-        <v>4362.51</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>811</v>
-      </c>
-      <c r="J25" s="6">
-        <v>174344.55</v>
-      </c>
-      <c r="K25" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L25" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="C26">
-        <v>4482708.4600000195</v>
-      </c>
-      <c r="D26" t="s">
-        <v>834</v>
-      </c>
-      <c r="F26">
-        <v>11944.18</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="I26" t="s">
-        <v>816</v>
-      </c>
-      <c r="J26" s="6">
-        <v>4230206.0999999996</v>
-      </c>
-      <c r="K26" s="6">
-        <f t="shared" si="0"/>
-        <v>4208602.8000000287</v>
-      </c>
-      <c r="L26" s="12">
-        <f t="shared" si="1"/>
-        <v>21603.299999970943</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="C27">
-        <v>4208602.8000000287</v>
-      </c>
-      <c r="D27" t="s">
-        <v>834</v>
-      </c>
-      <c r="F27">
-        <v>21603.300000000003</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-      <c r="I27" t="s">
-        <v>841</v>
-      </c>
-      <c r="J27" s="6">
-        <v>2059301.92</v>
-      </c>
-      <c r="K27" s="6">
-        <f t="shared" si="0"/>
-        <v>2053090.7099999983</v>
-      </c>
-      <c r="L27" s="12">
-        <f t="shared" si="1"/>
-        <v>6211.2100000015926</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="C28">
-        <v>11903069.6299999</v>
-      </c>
-      <c r="D28" t="s">
-        <v>834</v>
-      </c>
-      <c r="F28">
-        <v>34533.53</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
-      </c>
-      <c r="I28" t="s">
-        <v>842</v>
-      </c>
-      <c r="J28" s="6">
-        <v>973014.58</v>
-      </c>
-      <c r="K28" s="6">
-        <f t="shared" si="0"/>
-        <v>967041.63999999803</v>
-      </c>
-      <c r="L28" s="12">
-        <f t="shared" si="1"/>
-        <v>5972.9400000019232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>840</v>
-      </c>
-      <c r="C29">
-        <v>1025720.1200000005</v>
-      </c>
-      <c r="D29" t="s">
-        <v>834</v>
-      </c>
-      <c r="F29">
-        <v>9192.07</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>817</v>
-      </c>
-      <c r="J29" s="6">
-        <v>519110.25</v>
-      </c>
-      <c r="K29" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L29" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="C30">
-        <v>7090652.6299999217</v>
-      </c>
-      <c r="D30" t="s">
-        <v>834</v>
-      </c>
-      <c r="F30">
-        <v>30867.9</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="I30" t="s">
-        <v>833</v>
-      </c>
-      <c r="J30" s="6">
-        <v>342688.75</v>
-      </c>
-      <c r="K30" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L30" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>841</v>
-      </c>
-      <c r="C31">
-        <v>2053090.7099999983</v>
-      </c>
-      <c r="D31" t="s">
-        <v>834</v>
-      </c>
-      <c r="F31">
-        <v>6211.21</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>824</v>
-      </c>
-      <c r="J31" s="6">
-        <v>304569.76</v>
-      </c>
-      <c r="K31" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L31" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="C32">
-        <v>967041.63999999803</v>
-      </c>
-      <c r="D32" t="s">
-        <v>834</v>
-      </c>
-      <c r="F32">
-        <v>5972.94</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
-        <v>819</v>
-      </c>
-      <c r="J32" s="6">
-        <v>7121520.5300000003</v>
-      </c>
-      <c r="K32" s="6">
-        <f t="shared" si="0"/>
-        <v>7090652.6299999217</v>
-      </c>
-      <c r="L32" s="12">
-        <f t="shared" si="1"/>
-        <v>30867.900000078604</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="C33">
-        <v>1063525.4800000032</v>
-      </c>
-      <c r="D33" t="s">
-        <v>834</v>
-      </c>
-      <c r="F33">
-        <v>9659.1200000000008</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>823</v>
-      </c>
-      <c r="J33" s="6">
-        <v>9189899.4800000004</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" si="0"/>
-        <v>9179391.2099998333</v>
-      </c>
-      <c r="L33" s="12">
-        <f t="shared" si="1"/>
-        <v>10508.270000167191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="C34">
-        <v>5326437.0599999875</v>
-      </c>
-      <c r="D34" t="s">
-        <v>834</v>
-      </c>
-      <c r="F34">
-        <v>4829.5600000000004</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>835</v>
-      </c>
-      <c r="J34" s="6">
-        <v>500798.32</v>
-      </c>
-      <c r="K34" s="6">
-        <f t="shared" si="0"/>
-        <v>500798.32000000018</v>
-      </c>
-      <c r="L34" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>844</v>
-      </c>
-      <c r="C35">
-        <v>472242.14999999997</v>
-      </c>
-      <c r="D35" t="s">
-        <v>834</v>
-      </c>
-      <c r="F35">
-        <v>4362.51</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
-        <v>813</v>
-      </c>
-      <c r="J35" s="6">
-        <v>2233141.94</v>
-      </c>
-      <c r="K35" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L35" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="C36">
-        <v>3332171.8899999969</v>
-      </c>
-      <c r="D36" t="s">
-        <v>834</v>
-      </c>
-      <c r="F36">
-        <v>26110.969999999998</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="I36" t="s">
-        <v>818</v>
-      </c>
-      <c r="J36" s="6">
-        <v>826217.78</v>
-      </c>
-      <c r="K36" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L36" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="C37">
-        <v>9179391.2099998333</v>
-      </c>
-      <c r="D37" t="s">
-        <v>834</v>
-      </c>
-      <c r="F37">
-        <v>10508.27</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="I37" t="s">
-        <v>822</v>
-      </c>
-      <c r="J37" s="6">
-        <v>3358282.86</v>
-      </c>
-      <c r="K37" s="6">
-        <f t="shared" si="0"/>
-        <v>3332171.8899999969</v>
-      </c>
-      <c r="L37" s="12">
-        <f t="shared" si="1"/>
-        <v>26110.970000002999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="C38">
-        <v>1680455.2600000089</v>
-      </c>
-      <c r="D38" t="s">
-        <v>834</v>
-      </c>
-      <c r="F38">
-        <v>11648.66</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="I38" t="s">
-        <v>839</v>
-      </c>
-      <c r="J38" s="6">
-        <v>6047539.2800000003</v>
-      </c>
-      <c r="K38" s="6">
-        <f t="shared" si="0"/>
-        <v>6037031.0100000128</v>
-      </c>
-      <c r="L38" s="12">
-        <f t="shared" si="1"/>
-        <v>10508.269999987446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I39" t="s">
-        <v>846</v>
-      </c>
-      <c r="J39" s="6">
-        <v>818862.78</v>
-      </c>
-      <c r="K39" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L39" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I40" t="s">
-        <v>838</v>
-      </c>
-      <c r="J40" s="6">
-        <v>429468.72</v>
-      </c>
-      <c r="K40" s="6">
-        <f t="shared" si="0"/>
-        <v>429468.71999999991</v>
-      </c>
-      <c r="L40" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I41" t="s">
-        <v>821</v>
-      </c>
-      <c r="J41" s="6">
-        <v>1098093.8</v>
-      </c>
-      <c r="K41" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L41" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I42" t="s">
-        <v>845</v>
-      </c>
-      <c r="J42" s="6">
-        <v>1415609.39</v>
-      </c>
-      <c r="K42" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L42" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I43" t="s">
-        <v>815</v>
-      </c>
-      <c r="J43" s="6">
-        <v>1510245.89</v>
-      </c>
-      <c r="K43" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L43" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I44" t="s">
-        <v>837</v>
-      </c>
-      <c r="J44" s="6">
-        <v>3880802.43</v>
-      </c>
-      <c r="K44" s="6">
-        <f t="shared" si="0"/>
-        <v>3880024.7300000158</v>
-      </c>
-      <c r="L44" s="12">
-        <f t="shared" si="1"/>
-        <v>777.69999998435378</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I45" t="s">
-        <v>844</v>
-      </c>
-      <c r="J45" s="6">
-        <v>472242.15</v>
-      </c>
-      <c r="K45" s="6">
-        <f t="shared" si="0"/>
-        <v>472242.14999999997</v>
-      </c>
-      <c r="L45" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I46" t="s">
-        <v>814</v>
-      </c>
-      <c r="J46" s="6">
-        <v>4494652.6399999997</v>
-      </c>
-      <c r="K46" s="6">
-        <f t="shared" si="0"/>
-        <v>4482708.4600000195</v>
-      </c>
-      <c r="L46" s="12">
-        <f t="shared" si="1"/>
-        <v>11944.179999980144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I47" t="s">
-        <v>843</v>
-      </c>
-      <c r="J47" s="6">
-        <v>5331266.62</v>
-      </c>
-      <c r="K47" s="6">
-        <f t="shared" si="0"/>
-        <v>5326437.0599999875</v>
-      </c>
-      <c r="L47" s="12">
-        <f t="shared" si="1"/>
-        <v>4829.5600000126287</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I48" t="s">
-        <v>812</v>
-      </c>
-      <c r="J48" s="6">
-        <v>290077.37</v>
-      </c>
-      <c r="K48" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L48" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:L1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/AUTO PAGOS BBVA/MONTOS Y RECHAZOS QNA072021.xlsx
+++ b/AUTO PAGOS BBVA/MONTOS Y RECHAZOS QNA072021.xlsx
@@ -6370,90 +6370,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="RECHAZO">
-  <location ref="R1:S9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name=" #" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="JLE ">
   <location ref="N1:P25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
@@ -6588,10 +6504,10 @@
     <dataField name=" MONTO" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -6611,88 +6527,172 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="RECHAZO">
+  <location ref="R1:S9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" #" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="150421 CLABE" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 HG PEN" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 BC" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 DG" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 VZ" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 HG" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZO BBVAPEHONEXT2Q621 NT" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CC" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 OC" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 MN" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 MX" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 SL_1" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 GR" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 QT" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CH" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="OPERADO OB PEHONQ721 CH" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 JC" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 QR" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 BC" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 AG" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 HG" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CL" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 GR" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 SL_1" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 TS" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 HG PEN" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 OC" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 AG" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 NL" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 OFC" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 VZ" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 MX" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CH" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CL" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CS" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CC" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 QT" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 QR" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 JC" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6700,15 +6700,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 DG" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 OFC" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZO BBVAPEHONEXT2Q621 NT" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 NL" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 MN" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RECHAZADO OB PEHONQ721 CS" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40070,8 +40070,8 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
